--- a/docentes/Ángel Martínez Gerson Hermenegildo Estadisticos 2020.xlsx
+++ b/docentes/Ángel Martínez Gerson Hermenegildo Estadisticos 2020.xlsx
@@ -1024,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1093,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
